--- a/data/matrices/toppoint/Cosa price matrix.xlsx
+++ b/data/matrices/toppoint/Cosa price matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werkraamdeco/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberzandbelt/Documents/Raamdecoratie.com/Prijscalculaties/Toppoint/Prijzen 2025/Calculatie input 2025/Prijschecker inkoopprijzen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929ADACB-7289-374E-8427-019A1C25D683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A08FC2-49C4-644C-AB3F-4107D8C71721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51460" yWindow="500" windowWidth="15740" windowHeight="21100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enkele plooi" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -126,9 +126,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -409,16 +406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY22"/>
+  <dimension ref="A1:BX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -4098,7 +4092,7 @@
         <v>358.4484297520662</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>250</v>
       </c>
@@ -4328,7 +4322,7 @@
         <v>358.4484297520662</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>260</v>
       </c>
@@ -4558,7 +4552,7 @@
         <v>358.4484297520662</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>270</v>
       </c>
@@ -4787,81 +4781,6 @@
       <c r="BX19" s="4">
         <v>358.4484297520662</v>
       </c>
-    </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="4"/>
-      <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
-      <c r="BL22" s="4"/>
-      <c r="BM22" s="4"/>
-      <c r="BN22" s="4"/>
-      <c r="BO22" s="4"/>
-      <c r="BP22" s="4"/>
-      <c r="BQ22" s="4"/>
-      <c r="BR22" s="4"/>
-      <c r="BS22" s="4"/>
-      <c r="BT22" s="4"/>
-      <c r="BU22" s="4"/>
-      <c r="BV22" s="4"/>
-      <c r="BW22" s="4"/>
-      <c r="BX22" s="4"/>
-      <c r="BY22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4870,16 +4789,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25921B58-0CF3-0F40-BB3C-E4B24443584A}">
-  <dimension ref="A1:BX20"/>
+  <dimension ref="A1:BX19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:BZ21"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -9248,84 +9164,6 @@
       <c r="BX19" s="4">
         <v>358.4484297520662</v>
       </c>
-    </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
-      <c r="BL20" s="4"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="4"/>
-      <c r="BO20" s="4"/>
-      <c r="BP20" s="4"/>
-      <c r="BQ20" s="4"/>
-      <c r="BR20" s="4"/>
-      <c r="BS20" s="4"/>
-      <c r="BT20" s="4"/>
-      <c r="BU20" s="4"/>
-      <c r="BV20" s="4"/>
-      <c r="BW20" s="4"/>
-      <c r="BX20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9334,16 +9172,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D35EE44-4B52-754E-935D-2AACEF52FC60}">
-  <dimension ref="A1:BX20"/>
+  <dimension ref="A1:BX19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -13712,84 +13547,6 @@
       <c r="BX19" s="4">
         <v>349.38178512396701</v>
       </c>
-    </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
-      <c r="BL20" s="4"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="4"/>
-      <c r="BO20" s="4"/>
-      <c r="BP20" s="4"/>
-      <c r="BQ20" s="4"/>
-      <c r="BR20" s="4"/>
-      <c r="BS20" s="4"/>
-      <c r="BT20" s="4"/>
-      <c r="BU20" s="4"/>
-      <c r="BV20" s="4"/>
-      <c r="BW20" s="4"/>
-      <c r="BX20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13800,14 +13557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86660A19-1CFE-E04D-98ED-2BA1E6FB84AE}">
   <dimension ref="A1:BX19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
